--- a/data/trans_dic/P33b_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 14,99</t>
+          <t>9,23; 15,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,92; 17,28</t>
+          <t>11,99; 17,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,47</t>
+          <t>11,27; 15,29</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 15,58</t>
+          <t>9,56; 15,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 21,64</t>
+          <t>15,2; 21,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 17,33</t>
+          <t>12,66; 17,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 19,73</t>
+          <t>4,04; 19,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,34; 31,73</t>
+          <t>21,73; 33,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 21,88</t>
+          <t>5,76; 21,8</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,26</t>
+          <t>13,88; 18,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,39; 21,62</t>
+          <t>8,21; 21,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,77</t>
+          <t>11,59; 18,75</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,98</t>
+          <t>13,28; 20,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,86; 30,4</t>
+          <t>19,7; 30,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,2; 25,07</t>
+          <t>18,55; 25,01</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 10,89</t>
+          <t>1,65; 11,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,92; 25,75</t>
+          <t>20,93; 25,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 21,19</t>
+          <t>16,68; 21,15</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,19; 14,83</t>
+          <t>10,13; 14,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 22,59</t>
+          <t>16,53; 22,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,69; 18,44</t>
+          <t>14,97; 18,46</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>60168</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>64802</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>124970</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>46650; 77015</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53660; 77549</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>107337; 145633</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55604</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>69467</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>125071</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43219; 70672</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58161; 83525</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>105716; 145428</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79201</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>44334</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>123535</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26984; 129576</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36264; 55177</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>48087; 182030</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>165386</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>161748</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>327134</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>143606; 189010</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>80319; 214492</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>233278; 377376</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>77816</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>218863</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>296680</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>62957; 96414</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>165273; 253951</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>243574; 328345</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10706</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>177719</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>188425</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3976; 27206</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>159351; 197668</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>167092; 211888</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1293</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1837</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>448881</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>736933</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1185814</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>341992; 499591</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>590860; 803407</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1040608; 1282798</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>